--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74919.41146100977</v>
+        <v>14381716.62192722</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74919.41146100977</v>
+        <v>14381716.62192722</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24358.65981819468</v>
+        <v>3119238.22839956</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24358.65981819468</v>
+        <v>3119238.22839956</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418703454.36546</v>
+        <v>54995063.62820825</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11519.73986938418</v>
+        <v>1215981.572259553</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22164.34810548567</v>
+        <v>2299882.456829925</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33079.28255879926</v>
+        <v>3437151.961725874</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44408.53904340906</v>
+        <v>4469972.598984489</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55192.33911000052</v>
+        <v>5585258.813859677</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65969.47962392014</v>
+        <v>6701514.74299805</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77009.10506757228</v>
+        <v>7890540.640050257</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87895.29365862474</v>
+        <v>9053801.576181438</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99184.88537327774</v>
+        <v>10066522.63505027</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109968.0977657368</v>
+        <v>11194155.20253264</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120025.8066691113</v>
+        <v>12332073.37227589</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130221.3095118798</v>
+        <v>13491005.11777673</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140416.8123546482</v>
+        <v>14649936.86327758</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>151262.4898505321</v>
+        <v>15715770.1673246</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163886.759425495</v>
+        <v>16426944.40923101</v>
       </c>
     </row>
   </sheetData>
@@ -27043,7 +27043,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>330</v>
@@ -27055,10 +27055,10 @@
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>255</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>143</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>87</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>129</v>
